--- a/Code/Results/Cases/Case_2_222/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_222/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006573465985946</v>
+        <v>1.028678020988893</v>
       </c>
       <c r="D2">
-        <v>1.024737713109775</v>
+        <v>1.036796528020931</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.025386548358221</v>
+        <v>1.043812063205777</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044421646480671</v>
+        <v>1.03514486986706</v>
       </c>
       <c r="J2">
-        <v>1.028559327825431</v>
+        <v>1.033829008540978</v>
       </c>
       <c r="K2">
-        <v>1.035862843005878</v>
+        <v>1.039589244897956</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.036503184509841</v>
+        <v>1.046584875411446</v>
       </c>
       <c r="N2">
-        <v>1.01349052346971</v>
+        <v>1.015302514257191</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009956075395826</v>
+        <v>1.029397031238671</v>
       </c>
       <c r="D3">
-        <v>1.027215084913633</v>
+        <v>1.037350792930045</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.02853279387037</v>
+        <v>1.044542329342464</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045217644295457</v>
+        <v>1.03527165712086</v>
       </c>
       <c r="J3">
-        <v>1.030178958965385</v>
+        <v>1.034189910365411</v>
       </c>
       <c r="K3">
-        <v>1.037511194300801</v>
+        <v>1.039953862585193</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.038813158412338</v>
+        <v>1.047126463739498</v>
       </c>
       <c r="N3">
-        <v>1.014028982908934</v>
+        <v>1.015422212273532</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012107510314226</v>
+        <v>1.029862926031738</v>
       </c>
       <c r="D4">
-        <v>1.028793846869716</v>
+        <v>1.037710030552985</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.030539437006549</v>
+        <v>1.045015937048024</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045715943921481</v>
+        <v>1.035352819971266</v>
       </c>
       <c r="J4">
-        <v>1.031206494826789</v>
+        <v>1.034423379942194</v>
       </c>
       <c r="K4">
-        <v>1.03855674522025</v>
+        <v>1.040189678436958</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.040282736948882</v>
+        <v>1.047477313166697</v>
       </c>
       <c r="N4">
-        <v>1.014370574230303</v>
+        <v>1.0154996327523</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.013003272393209</v>
+        <v>1.030058941083473</v>
       </c>
       <c r="D5">
-        <v>1.029451880204901</v>
+        <v>1.037861193587417</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.031376220303956</v>
+        <v>1.045215297211179</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045921471618339</v>
+        <v>1.035386730132299</v>
       </c>
       <c r="J5">
-        <v>1.031633670881085</v>
+        <v>1.034521515340477</v>
       </c>
       <c r="K5">
-        <v>1.03899135584075</v>
+        <v>1.04028878620341</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.040894666210709</v>
+        <v>1.047624905516921</v>
       </c>
       <c r="N5">
-        <v>1.014512577467914</v>
+        <v>1.015532172168708</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013153171300547</v>
+        <v>1.030091861779084</v>
       </c>
       <c r="D6">
-        <v>1.02956203763301</v>
+        <v>1.037886582650716</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.031516325655965</v>
+        <v>1.045248785575238</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045955750138711</v>
+        <v>1.03539241142013</v>
       </c>
       <c r="J6">
-        <v>1.031705117022322</v>
+        <v>1.034537991775299</v>
       </c>
       <c r="K6">
-        <v>1.039064042050907</v>
+        <v>1.040305425079259</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.040997070745788</v>
+        <v>1.047649692453933</v>
       </c>
       <c r="N6">
-        <v>1.014536327440796</v>
+        <v>1.015537635188483</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012119513410911</v>
+        <v>1.029865544596285</v>
       </c>
       <c r="D7">
-        <v>1.028802661684345</v>
+        <v>1.037712049855068</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.030550644669989</v>
+        <v>1.045018599907271</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045718705669746</v>
+        <v>1.035353273909345</v>
       </c>
       <c r="J7">
-        <v>1.031212221502683</v>
+        <v>1.034424691293616</v>
       </c>
       <c r="K7">
-        <v>1.038562571786746</v>
+        <v>1.040191002836356</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.04029093651277</v>
+        <v>1.04747928493095</v>
       </c>
       <c r="N7">
-        <v>1.014372477935457</v>
+        <v>1.015500067578185</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007724512295958</v>
+        <v>1.028920878664422</v>
       </c>
       <c r="D8">
-        <v>1.02558005645292</v>
+        <v>1.036983720843203</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.026455989683522</v>
+        <v>1.044058635763011</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04469416321001</v>
+        <v>1.035187899346225</v>
       </c>
       <c r="J8">
-        <v>1.029110991321049</v>
+        <v>1.033950988226992</v>
       </c>
       <c r="K8">
-        <v>1.03642432866058</v>
+        <v>1.039712492362042</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.037289136643452</v>
+        <v>1.046767822640748</v>
       </c>
       <c r="N8">
-        <v>1.013673932331796</v>
+        <v>1.015342973142136</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9996828332425509</v>
+        <v>1.027261302408365</v>
       </c>
       <c r="D9">
-        <v>1.019709490944823</v>
+        <v>1.035704927516679</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.019008818265496</v>
+        <v>1.042375403051982</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042757766025368</v>
+        <v>1.034889804844449</v>
       </c>
       <c r="J9">
-        <v>1.025246796458954</v>
+        <v>1.033115876673135</v>
       </c>
       <c r="K9">
-        <v>1.032490688773167</v>
+        <v>1.038868468159297</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.031800839247558</v>
+        <v>1.045517322748074</v>
       </c>
       <c r="N9">
-        <v>1.012389170459254</v>
+        <v>1.015065926749121</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9941056442573908</v>
+        <v>1.026158432421936</v>
       </c>
       <c r="D10">
-        <v>1.015657858088304</v>
+        <v>1.034855620741358</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.013876025420953</v>
+        <v>1.041258996110718</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041374885489749</v>
+        <v>1.034686626646177</v>
       </c>
       <c r="J10">
-        <v>1.022555091467083</v>
+        <v>1.032558954807629</v>
       </c>
       <c r="K10">
-        <v>1.02975004518298</v>
+        <v>1.038305313036863</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.027999183507969</v>
+        <v>1.044685909543512</v>
       </c>
       <c r="N10">
-        <v>1.011494211139726</v>
+        <v>1.014881104643144</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9916355612082423</v>
+        <v>1.02568173685768</v>
       </c>
       <c r="D11">
-        <v>1.013868653843849</v>
+        <v>1.034488651038548</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.01161077153511</v>
+        <v>1.040776971934912</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04075335951204</v>
+        <v>1.034597602652468</v>
       </c>
       <c r="J11">
-        <v>1.021360498665369</v>
+        <v>1.032317775325941</v>
       </c>
       <c r="K11">
-        <v>1.028533682715217</v>
+        <v>1.038061366473596</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.026316997885032</v>
+        <v>1.04432645633133</v>
       </c>
       <c r="N11">
-        <v>1.011097030537666</v>
+        <v>1.014801050906851</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9907094336612426</v>
+        <v>1.025504801364837</v>
       </c>
       <c r="D12">
-        <v>1.013198644651899</v>
+        <v>1.034352462264228</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.010762681393323</v>
+        <v>1.040598137503626</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040518999514818</v>
+        <v>1.034564378716603</v>
       </c>
       <c r="J12">
-        <v>1.020912258722379</v>
+        <v>1.032228187582668</v>
       </c>
       <c r="K12">
-        <v>1.028077273969281</v>
+        <v>1.037970740782662</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.025686549965419</v>
+        <v>1.04419302457314</v>
       </c>
       <c r="N12">
-        <v>1.010948000975381</v>
+        <v>1.014771312168619</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.990908487404384</v>
+        <v>1.025542748691195</v>
       </c>
       <c r="D13">
-        <v>1.013342612236888</v>
+        <v>1.034381669750178</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.010944905862603</v>
+        <v>1.040636488518625</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040569430178319</v>
+        <v>1.034571512431551</v>
       </c>
       <c r="J13">
-        <v>1.021008614485207</v>
+        <v>1.032247404569216</v>
       </c>
       <c r="K13">
-        <v>1.028175385630778</v>
+        <v>1.037990180869456</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.025822040239506</v>
+        <v>1.044221642253509</v>
       </c>
       <c r="N13">
-        <v>1.010980036955168</v>
+        <v>1.0147776913669</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.991559185309725</v>
+        <v>1.025667108641076</v>
       </c>
       <c r="D14">
-        <v>1.013813382339464</v>
+        <v>1.034477391169797</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.011540805808521</v>
+        <v>1.040762185110895</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040734059084392</v>
+        <v>1.034594859538903</v>
       </c>
       <c r="J14">
-        <v>1.021323539998678</v>
+        <v>1.032310370027375</v>
       </c>
       <c r="K14">
-        <v>1.028496050470736</v>
+        <v>1.038053875584078</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.026265000447002</v>
+        <v>1.044315425072117</v>
       </c>
       <c r="N14">
-        <v>1.011084742573546</v>
+        <v>1.014798592756358</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9919589476916663</v>
+        <v>1.025743748261168</v>
       </c>
       <c r="D15">
-        <v>1.014102715491455</v>
+        <v>1.034536384273387</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.011907067208956</v>
+        <v>1.040839658935031</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040835026377892</v>
+        <v>1.034609223752555</v>
       </c>
       <c r="J15">
-        <v>1.021516973167126</v>
+        <v>1.032349164774565</v>
       </c>
       <c r="K15">
-        <v>1.028693009022122</v>
+        <v>1.038093118310616</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.026537173599041</v>
+        <v>1.044373219104698</v>
       </c>
       <c r="N15">
-        <v>1.011149055048175</v>
+        <v>1.014811470380146</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9942683849313029</v>
+        <v>1.026190087317266</v>
       </c>
       <c r="D16">
-        <v>1.015775852238334</v>
+        <v>1.034879992042858</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.014025441239468</v>
+        <v>1.041291015900927</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041415648272898</v>
+        <v>1.034692512892145</v>
       </c>
       <c r="J16">
-        <v>1.022633747788457</v>
+        <v>1.032574960608043</v>
       </c>
       <c r="K16">
-        <v>1.029830134456059</v>
+        <v>1.038321501053695</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.028110048875515</v>
+        <v>1.044709777108527</v>
       </c>
       <c r="N16">
-        <v>1.011520363189885</v>
+        <v>1.014886417069099</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9957020363717173</v>
+        <v>1.026470294248017</v>
       </c>
       <c r="D17">
-        <v>1.016815914594134</v>
+        <v>1.035095739941536</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.015342627080924</v>
+        <v>1.041574513320068</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041773714635193</v>
+        <v>1.034744478331331</v>
       </c>
       <c r="J17">
-        <v>1.023326386836406</v>
+        <v>1.032716589660266</v>
       </c>
       <c r="K17">
-        <v>1.030535387039403</v>
+        <v>1.038464734654677</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.029086887996079</v>
+        <v>1.044921040773581</v>
       </c>
       <c r="N17">
-        <v>1.011750656249595</v>
+        <v>1.014933422908717</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9965329667545177</v>
+        <v>1.026633816508238</v>
       </c>
       <c r="D18">
-        <v>1.017419218839311</v>
+        <v>1.035221657714561</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.016106815268454</v>
+        <v>1.041740006273276</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041980381420823</v>
+        <v>1.034774687870204</v>
       </c>
       <c r="J18">
-        <v>1.02372759733833</v>
+        <v>1.03279919663609</v>
       </c>
       <c r="K18">
-        <v>1.030943898631155</v>
+        <v>1.038548270965607</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.029653197645591</v>
+        <v>1.045044320638762</v>
       </c>
       <c r="N18">
-        <v>1.011884053880519</v>
+        <v>1.01496083821991</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9968154047905873</v>
+        <v>1.026689587268556</v>
       </c>
       <c r="D19">
-        <v>1.017624367917422</v>
+        <v>1.035264605193868</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.016366695139619</v>
+        <v>1.04179645770016</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04205048089697</v>
+        <v>1.034784971383888</v>
       </c>
       <c r="J19">
-        <v>1.023863930189063</v>
+        <v>1.032827362954652</v>
       </c>
       <c r="K19">
-        <v>1.031082711308748</v>
+        <v>1.038576753046062</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.029845712771623</v>
+        <v>1.045086364876859</v>
       </c>
       <c r="N19">
-        <v>1.011929382970377</v>
+        <v>1.014970185711153</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9955487692004075</v>
+        <v>1.026440222168586</v>
       </c>
       <c r="D20">
-        <v>1.01670467322196</v>
+        <v>1.035072584391634</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.015201731814023</v>
+        <v>1.041544082883173</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041735524326792</v>
+        <v>1.034738913375251</v>
       </c>
       <c r="J20">
-        <v>1.023252363278511</v>
+        <v>1.032701394488763</v>
       </c>
       <c r="K20">
-        <v>1.030460015947945</v>
+        <v>1.038449368009287</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.028982442082682</v>
+        <v>1.044898368650359</v>
       </c>
       <c r="N20">
-        <v>1.011726044353949</v>
+        <v>1.014928379871806</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9913678120679936</v>
+        <v>1.025630484117118</v>
       </c>
       <c r="D21">
-        <v>1.013674903423908</v>
+        <v>1.03444920026526</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.011365514477446</v>
+        <v>1.040725164758991</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040685677211013</v>
+        <v>1.034587988710652</v>
       </c>
       <c r="J21">
-        <v>1.021230928146995</v>
+        <v>1.032291828339731</v>
       </c>
       <c r="K21">
-        <v>1.028401750773094</v>
+        <v>1.038035119427493</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.026134716157368</v>
+        <v>1.044287806003107</v>
       </c>
       <c r="N21">
-        <v>1.011053951157221</v>
+        <v>1.014792437903117</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9886889700827267</v>
+        <v>1.025122125531924</v>
       </c>
       <c r="D22">
-        <v>1.011738514210675</v>
+        <v>1.034057949875809</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.008914783024521</v>
+        <v>1.040211499281418</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040005316643517</v>
+        <v>1.034492191528101</v>
       </c>
       <c r="J22">
-        <v>1.019933770457272</v>
+        <v>1.032034301476486</v>
       </c>
       <c r="K22">
-        <v>1.02708096121433</v>
+        <v>1.037774589967006</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.024311681102769</v>
+        <v>1.043904414740392</v>
       </c>
       <c r="N22">
-        <v>1.010622681085281</v>
+        <v>1.014706947416763</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9901139452415844</v>
+        <v>1.025391543688539</v>
       </c>
       <c r="D23">
-        <v>1.012768077182653</v>
+        <v>1.034265292453596</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.010217723763896</v>
+        <v>1.040483686557474</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040367939716763</v>
+        <v>1.034543060942002</v>
       </c>
       <c r="J23">
-        <v>1.020623953283857</v>
+        <v>1.032170822438118</v>
       </c>
       <c r="K23">
-        <v>1.027783715244725</v>
+        <v>1.037912708183033</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.025281259826397</v>
+        <v>1.044107610268589</v>
       </c>
       <c r="N23">
-        <v>1.010852146731595</v>
+        <v>1.014752269125681</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9956180403740037</v>
+        <v>1.02645381019284</v>
       </c>
       <c r="D24">
-        <v>1.016754948738551</v>
+        <v>1.035083047154381</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.015265408985274</v>
+        <v>1.041557832674944</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041752787636718</v>
+        <v>1.034741428251609</v>
       </c>
       <c r="J24">
-        <v>1.023285819962338</v>
+        <v>1.032708260541701</v>
       </c>
       <c r="K24">
-        <v>1.030494081698126</v>
+        <v>1.038456311564209</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.029029647386643</v>
+        <v>1.044908613042372</v>
       </c>
       <c r="N24">
-        <v>1.011737168275893</v>
+        <v>1.01493065861059</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.001798639902541</v>
+        <v>1.027689732159178</v>
       </c>
       <c r="D25">
-        <v>1.021250806288043</v>
+        <v>1.03603496701669</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.02096278150771</v>
+        <v>1.042809555862763</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043274282966447</v>
+        <v>1.034967656801177</v>
       </c>
       <c r="J25">
-        <v>1.026265623888436</v>
+        <v>1.033331810667395</v>
       </c>
       <c r="K25">
-        <v>1.033527950373357</v>
+        <v>1.039086758048803</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.033244165102266</v>
+        <v>1.045840217832307</v>
       </c>
       <c r="N25">
-        <v>1.012727917341169</v>
+        <v>1.01513757383086</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_222/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_222/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028678020988893</v>
+        <v>1.006573465985946</v>
       </c>
       <c r="D2">
-        <v>1.036796528020931</v>
+        <v>1.024737713109774</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.043812063205777</v>
+        <v>1.025386548358221</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03514486986706</v>
+        <v>1.04442164648067</v>
       </c>
       <c r="J2">
-        <v>1.033829008540978</v>
+        <v>1.028559327825431</v>
       </c>
       <c r="K2">
-        <v>1.039589244897956</v>
+        <v>1.035862843005877</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.046584875411446</v>
+        <v>1.036503184509841</v>
       </c>
       <c r="N2">
-        <v>1.015302514257191</v>
+        <v>1.01349052346971</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029397031238671</v>
+        <v>1.009956075395825</v>
       </c>
       <c r="D3">
-        <v>1.037350792930045</v>
+        <v>1.027215084913633</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.044542329342464</v>
+        <v>1.02853279387037</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03527165712086</v>
+        <v>1.045217644295457</v>
       </c>
       <c r="J3">
-        <v>1.034189910365411</v>
+        <v>1.030178958965384</v>
       </c>
       <c r="K3">
-        <v>1.039953862585193</v>
+        <v>1.037511194300801</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.047126463739498</v>
+        <v>1.038813158412338</v>
       </c>
       <c r="N3">
-        <v>1.015422212273532</v>
+        <v>1.014028982908934</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029862926031738</v>
+        <v>1.012107510314225</v>
       </c>
       <c r="D4">
-        <v>1.037710030552985</v>
+        <v>1.028793846869716</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.045015937048024</v>
+        <v>1.030539437006549</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035352819971266</v>
+        <v>1.045715943921481</v>
       </c>
       <c r="J4">
-        <v>1.034423379942194</v>
+        <v>1.031206494826789</v>
       </c>
       <c r="K4">
-        <v>1.040189678436958</v>
+        <v>1.03855674522025</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.047477313166697</v>
+        <v>1.040282736948882</v>
       </c>
       <c r="N4">
-        <v>1.0154996327523</v>
+        <v>1.014370574230303</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030058941083473</v>
+        <v>1.01300327239321</v>
       </c>
       <c r="D5">
-        <v>1.037861193587417</v>
+        <v>1.029451880204901</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.045215297211179</v>
+        <v>1.031376220303957</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035386730132299</v>
+        <v>1.045921471618339</v>
       </c>
       <c r="J5">
-        <v>1.034521515340477</v>
+        <v>1.031633670881086</v>
       </c>
       <c r="K5">
-        <v>1.04028878620341</v>
+        <v>1.038991355840751</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.047624905516921</v>
+        <v>1.04089466621071</v>
       </c>
       <c r="N5">
-        <v>1.015532172168708</v>
+        <v>1.014512577467914</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030091861779084</v>
+        <v>1.013153171300546</v>
       </c>
       <c r="D6">
-        <v>1.037886582650716</v>
+        <v>1.02956203763301</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.045248785575238</v>
+        <v>1.031516325655965</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03539241142013</v>
+        <v>1.045955750138711</v>
       </c>
       <c r="J6">
-        <v>1.034537991775299</v>
+        <v>1.031705117022321</v>
       </c>
       <c r="K6">
-        <v>1.040305425079259</v>
+        <v>1.039064042050907</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.047649692453933</v>
+        <v>1.040997070745788</v>
       </c>
       <c r="N6">
-        <v>1.015537635188483</v>
+        <v>1.014536327440796</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029865544596285</v>
+        <v>1.012119513410911</v>
       </c>
       <c r="D7">
-        <v>1.037712049855068</v>
+        <v>1.028802661684346</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.045018599907271</v>
+        <v>1.030550644669989</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035353273909345</v>
+        <v>1.045718705669747</v>
       </c>
       <c r="J7">
-        <v>1.034424691293616</v>
+        <v>1.031212221502683</v>
       </c>
       <c r="K7">
-        <v>1.040191002836356</v>
+        <v>1.038562571786747</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.04747928493095</v>
+        <v>1.04029093651277</v>
       </c>
       <c r="N7">
-        <v>1.015500067578185</v>
+        <v>1.014372477935457</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028920878664422</v>
+        <v>1.007724512295958</v>
       </c>
       <c r="D8">
-        <v>1.036983720843203</v>
+        <v>1.02558005645292</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.044058635763011</v>
+        <v>1.026455989683522</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035187899346225</v>
+        <v>1.04469416321001</v>
       </c>
       <c r="J8">
-        <v>1.033950988226992</v>
+        <v>1.029110991321048</v>
       </c>
       <c r="K8">
-        <v>1.039712492362042</v>
+        <v>1.03642432866058</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.046767822640748</v>
+        <v>1.037289136643452</v>
       </c>
       <c r="N8">
-        <v>1.015342973142136</v>
+        <v>1.013673932331796</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027261302408365</v>
+        <v>0.9996828332425514</v>
       </c>
       <c r="D9">
-        <v>1.035704927516679</v>
+        <v>1.019709490944823</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.042375403051982</v>
+        <v>1.019008818265496</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034889804844449</v>
+        <v>1.042757766025368</v>
       </c>
       <c r="J9">
-        <v>1.033115876673135</v>
+        <v>1.025246796458955</v>
       </c>
       <c r="K9">
-        <v>1.038868468159297</v>
+        <v>1.032490688773167</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.045517322748074</v>
+        <v>1.031800839247558</v>
       </c>
       <c r="N9">
-        <v>1.015065926749121</v>
+        <v>1.012389170459254</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026158432421936</v>
+        <v>0.9941056442573898</v>
       </c>
       <c r="D10">
-        <v>1.034855620741358</v>
+        <v>1.015657858088304</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.041258996110718</v>
+        <v>1.013876025420952</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034686626646177</v>
+        <v>1.041374885489749</v>
       </c>
       <c r="J10">
-        <v>1.032558954807629</v>
+        <v>1.022555091467082</v>
       </c>
       <c r="K10">
-        <v>1.038305313036863</v>
+        <v>1.029750045182979</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.044685909543512</v>
+        <v>1.027999183507968</v>
       </c>
       <c r="N10">
-        <v>1.014881104643144</v>
+        <v>1.011494211139726</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02568173685768</v>
+        <v>0.9916355612082423</v>
       </c>
       <c r="D11">
-        <v>1.034488651038548</v>
+        <v>1.01386865384385</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.040776971934912</v>
+        <v>1.01161077153511</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034597602652468</v>
+        <v>1.04075335951204</v>
       </c>
       <c r="J11">
-        <v>1.032317775325941</v>
+        <v>1.021360498665369</v>
       </c>
       <c r="K11">
-        <v>1.038061366473596</v>
+        <v>1.028533682715217</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.04432645633133</v>
+        <v>1.026316997885032</v>
       </c>
       <c r="N11">
-        <v>1.014801050906851</v>
+        <v>1.011097030537666</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025504801364837</v>
+        <v>0.9907094336612429</v>
       </c>
       <c r="D12">
-        <v>1.034352462264228</v>
+        <v>1.013198644651899</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.040598137503626</v>
+        <v>1.010762681393323</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034564378716603</v>
+        <v>1.040518999514818</v>
       </c>
       <c r="J12">
-        <v>1.032228187582668</v>
+        <v>1.020912258722379</v>
       </c>
       <c r="K12">
-        <v>1.037970740782662</v>
+        <v>1.028077273969281</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.04419302457314</v>
+        <v>1.025686549965419</v>
       </c>
       <c r="N12">
-        <v>1.014771312168619</v>
+        <v>1.010948000975381</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025542748691195</v>
+        <v>0.9909084874043845</v>
       </c>
       <c r="D13">
-        <v>1.034381669750178</v>
+        <v>1.013342612236889</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.040636488518625</v>
+        <v>1.010944905862604</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034571512431551</v>
+        <v>1.04056943017832</v>
       </c>
       <c r="J13">
-        <v>1.032247404569216</v>
+        <v>1.021008614485208</v>
       </c>
       <c r="K13">
-        <v>1.037990180869456</v>
+        <v>1.028175385630779</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.044221642253509</v>
+        <v>1.025822040239507</v>
       </c>
       <c r="N13">
-        <v>1.0147776913669</v>
+        <v>1.010980036955168</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025667108641076</v>
+        <v>0.9915591853097252</v>
       </c>
       <c r="D14">
-        <v>1.034477391169797</v>
+        <v>1.013813382339464</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.040762185110895</v>
+        <v>1.011540805808522</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034594859538903</v>
+        <v>1.040734059084392</v>
       </c>
       <c r="J14">
-        <v>1.032310370027375</v>
+        <v>1.021323539998679</v>
       </c>
       <c r="K14">
-        <v>1.038053875584078</v>
+        <v>1.028496050470736</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.044315425072117</v>
+        <v>1.026265000447003</v>
       </c>
       <c r="N14">
-        <v>1.014798592756358</v>
+        <v>1.011084742573547</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025743748261168</v>
+        <v>0.9919589476916659</v>
       </c>
       <c r="D15">
-        <v>1.034536384273387</v>
+        <v>1.014102715491455</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.040839658935031</v>
+        <v>1.011907067208956</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034609223752555</v>
+        <v>1.040835026377892</v>
       </c>
       <c r="J15">
-        <v>1.032349164774565</v>
+        <v>1.021516973167125</v>
       </c>
       <c r="K15">
-        <v>1.038093118310616</v>
+        <v>1.028693009022121</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.044373219104698</v>
+        <v>1.026537173599041</v>
       </c>
       <c r="N15">
-        <v>1.014811470380146</v>
+        <v>1.011149055048175</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026190087317266</v>
+        <v>0.9942683849313029</v>
       </c>
       <c r="D16">
-        <v>1.034879992042858</v>
+        <v>1.015775852238334</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.041291015900927</v>
+        <v>1.014025441239468</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034692512892145</v>
+        <v>1.041415648272898</v>
       </c>
       <c r="J16">
-        <v>1.032574960608043</v>
+        <v>1.022633747788457</v>
       </c>
       <c r="K16">
-        <v>1.038321501053695</v>
+        <v>1.029830134456059</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.044709777108527</v>
+        <v>1.028110048875515</v>
       </c>
       <c r="N16">
-        <v>1.014886417069099</v>
+        <v>1.011520363189885</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026470294248017</v>
+        <v>0.9957020363717177</v>
       </c>
       <c r="D17">
-        <v>1.035095739941536</v>
+        <v>1.016815914594134</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.041574513320068</v>
+        <v>1.015342627080925</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034744478331331</v>
+        <v>1.041773714635193</v>
       </c>
       <c r="J17">
-        <v>1.032716589660266</v>
+        <v>1.023326386836406</v>
       </c>
       <c r="K17">
-        <v>1.038464734654677</v>
+        <v>1.030535387039403</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.044921040773581</v>
+        <v>1.029086887996079</v>
       </c>
       <c r="N17">
-        <v>1.014933422908717</v>
+        <v>1.011750656249595</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026633816508238</v>
+        <v>0.9965329667545177</v>
       </c>
       <c r="D18">
-        <v>1.035221657714561</v>
+        <v>1.017419218839311</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.041740006273276</v>
+        <v>1.016106815268454</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034774687870204</v>
+        <v>1.041980381420823</v>
       </c>
       <c r="J18">
-        <v>1.03279919663609</v>
+        <v>1.02372759733833</v>
       </c>
       <c r="K18">
-        <v>1.038548270965607</v>
+        <v>1.030943898631155</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.045044320638762</v>
+        <v>1.029653197645591</v>
       </c>
       <c r="N18">
-        <v>1.01496083821991</v>
+        <v>1.011884053880519</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026689587268556</v>
+        <v>0.9968154047905875</v>
       </c>
       <c r="D19">
-        <v>1.035264605193868</v>
+        <v>1.017624367917422</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.04179645770016</v>
+        <v>1.016366695139619</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034784971383888</v>
+        <v>1.04205048089697</v>
       </c>
       <c r="J19">
-        <v>1.032827362954652</v>
+        <v>1.023863930189063</v>
       </c>
       <c r="K19">
-        <v>1.038576753046062</v>
+        <v>1.031082711308748</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.045086364876859</v>
+        <v>1.029845712771623</v>
       </c>
       <c r="N19">
-        <v>1.014970185711153</v>
+        <v>1.011929382970377</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026440222168586</v>
+        <v>0.9955487692004078</v>
       </c>
       <c r="D20">
-        <v>1.035072584391634</v>
+        <v>1.016704673221961</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.041544082883173</v>
+        <v>1.015201731814024</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034738913375251</v>
+        <v>1.041735524326792</v>
       </c>
       <c r="J20">
-        <v>1.032701394488763</v>
+        <v>1.023252363278511</v>
       </c>
       <c r="K20">
-        <v>1.038449368009287</v>
+        <v>1.030460015947945</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.044898368650359</v>
+        <v>1.028982442082682</v>
       </c>
       <c r="N20">
-        <v>1.014928379871806</v>
+        <v>1.011726044353949</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025630484117118</v>
+        <v>0.9913678120679931</v>
       </c>
       <c r="D21">
-        <v>1.03444920026526</v>
+        <v>1.013674903423907</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.040725164758991</v>
+        <v>1.011365514477445</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034587988710652</v>
+        <v>1.040685677211013</v>
       </c>
       <c r="J21">
-        <v>1.032291828339731</v>
+        <v>1.021230928146994</v>
       </c>
       <c r="K21">
-        <v>1.038035119427493</v>
+        <v>1.028401750773093</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.044287806003107</v>
+        <v>1.026134716157367</v>
       </c>
       <c r="N21">
-        <v>1.014792437903117</v>
+        <v>1.011053951157221</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025122125531924</v>
+        <v>0.9886889700827264</v>
       </c>
       <c r="D22">
-        <v>1.034057949875809</v>
+        <v>1.011738514210675</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.040211499281418</v>
+        <v>1.008914783024521</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034492191528101</v>
+        <v>1.040005316643517</v>
       </c>
       <c r="J22">
-        <v>1.032034301476486</v>
+        <v>1.019933770457272</v>
       </c>
       <c r="K22">
-        <v>1.037774589967006</v>
+        <v>1.02708096121433</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.043904414740392</v>
+        <v>1.024311681102769</v>
       </c>
       <c r="N22">
-        <v>1.014706947416763</v>
+        <v>1.010622681085281</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025391543688539</v>
+        <v>0.9901139452415837</v>
       </c>
       <c r="D23">
-        <v>1.034265292453596</v>
+        <v>1.012768077182652</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.040483686557474</v>
+        <v>1.010217723763896</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034543060942002</v>
+        <v>1.040367939716763</v>
       </c>
       <c r="J23">
-        <v>1.032170822438118</v>
+        <v>1.020623953283856</v>
       </c>
       <c r="K23">
-        <v>1.037912708183033</v>
+        <v>1.027783715244724</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.044107610268589</v>
+        <v>1.025281259826396</v>
       </c>
       <c r="N23">
-        <v>1.014752269125681</v>
+        <v>1.010852146731595</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02645381019284</v>
+        <v>0.9956180403740036</v>
       </c>
       <c r="D24">
-        <v>1.035083047154381</v>
+        <v>1.016754948738551</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.041557832674944</v>
+        <v>1.015265408985274</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034741428251609</v>
+        <v>1.041752787636717</v>
       </c>
       <c r="J24">
-        <v>1.032708260541701</v>
+        <v>1.023285819962338</v>
       </c>
       <c r="K24">
-        <v>1.038456311564209</v>
+        <v>1.030494081698126</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.044908613042372</v>
+        <v>1.029029647386643</v>
       </c>
       <c r="N24">
-        <v>1.01493065861059</v>
+        <v>1.011737168275893</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027689732159178</v>
+        <v>1.001798639902541</v>
       </c>
       <c r="D25">
-        <v>1.03603496701669</v>
+        <v>1.021250806288044</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.042809555862763</v>
+        <v>1.02096278150771</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034967656801177</v>
+        <v>1.043274282966447</v>
       </c>
       <c r="J25">
-        <v>1.033331810667395</v>
+        <v>1.026265623888436</v>
       </c>
       <c r="K25">
-        <v>1.039086758048803</v>
+        <v>1.033527950373358</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.045840217832307</v>
+        <v>1.033244165102266</v>
       </c>
       <c r="N25">
-        <v>1.01513757383086</v>
+        <v>1.012727917341169</v>
       </c>
     </row>
   </sheetData>
